--- a/reults.xlsx
+++ b/reults.xlsx
@@ -193,24 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -218,10 +206,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,34 +430,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23809523809523808</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.375</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92173913043478262</c:v>
+                  <c:v>0.92105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76190476190476186</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,34 +534,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,34 +638,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6956521739130436E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,34 +742,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6956521739130436E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,34 +846,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6956521739130436E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,34 +950,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6956521739130436E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,12 +993,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="296293496"/>
-        <c:axId val="296299768"/>
+        <c:axId val="159106592"/>
+        <c:axId val="159120936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="296293496"/>
+        <c:axId val="159106592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296299768"/>
+        <c:crossAx val="159120936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296299768"/>
+        <c:axId val="159120936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296293496"/>
+        <c:crossAx val="159106592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,12 +1829,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292913888"/>
-        <c:axId val="292913496"/>
+        <c:axId val="158994136"/>
+        <c:axId val="217009152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292913888"/>
+        <c:axId val="158994136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292913496"/>
+        <c:crossAx val="217009152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1879,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292913496"/>
+        <c:axId val="217009152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292913888"/>
+        <c:crossAx val="158994136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3409,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:Q13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,74 +3421,74 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3497,53 +3496,53 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM(B3:G3)</f>
-        <v>8</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)-1</f>
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
         <v>21</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="7">
         <v>25</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="7">
         <v>43</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="7">
         <v>54</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="7">
         <v>110</v>
       </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
         <f>SUM(I3:P3)</f>
         <v>255</v>
       </c>
@@ -3552,53 +3551,53 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H12" si="0">SUM(B4:G4)</f>
-        <v>21</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H12" si="0">SUM(B4:G4)-1</f>
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>4</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <v>7</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="8">
         <v>5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="8">
         <v>3</v>
       </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <f t="shared" ref="Q4:Q12" si="1">SUM(I4:P4)</f>
         <v>30</v>
       </c>
@@ -3607,53 +3606,53 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I5" s="12">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8">
         <v>176</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>68</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>142</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <v>70</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>258</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
         <v>2</v>
       </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
         <f t="shared" si="1"/>
         <v>716</v>
       </c>
@@ -3662,53 +3661,53 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I6" s="12">
         <v>7</v>
       </c>
-      <c r="J6" s="12">
+      <c r="I6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="12">
+      <c r="J6" s="8">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8">
         <v>6</v>
       </c>
-      <c r="L6" s="12">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
         <v>11</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <v>2</v>
       </c>
-      <c r="O6" s="12">
-        <v>1</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -3717,53 +3716,53 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
         <v>6</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="8">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9</v>
+      </c>
+      <c r="L7" s="8">
         <v>6</v>
       </c>
-      <c r="J7" s="12">
-        <v>9</v>
-      </c>
-      <c r="K7" s="12">
-        <v>9</v>
-      </c>
-      <c r="L7" s="12">
-        <v>6</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <v>21</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
         <v>2</v>
       </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -3772,53 +3771,53 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>106</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="I8" s="12">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8">
         <v>38</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>37</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <v>11</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>15</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="8">
         <v>10</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
         <v>2</v>
       </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -3827,53 +3826,53 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>1</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3882,53 +3881,53 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I10" s="12">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
         <v>213</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>72</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <v>69</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <v>94</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="8">
         <v>283</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12">
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
         <v>732</v>
       </c>
@@ -3937,53 +3936,52 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3992,776 +3990,776 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I12" s="12">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8">
         <v>32</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <v>69</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="8">
         <v>61</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>62</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <v>144</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
         <v>3</v>
       </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="1"/>
         <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="2" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18">
-        <f>(B3/H3)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="18">
-        <f>(C3/H3)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="18">
-        <f>(D3/H3)</f>
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="18">
-        <f>(E3/H3)</f>
-        <v>0.125</v>
-      </c>
-      <c r="F16" s="18">
-        <f>(F3/H3)</f>
-        <v>0.125</v>
-      </c>
-      <c r="G16" s="15">
-        <f>(G3/H3)</f>
-        <v>0.125</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="18">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13">
+        <f>((B3-1)/H3)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C16" s="13">
+        <f>((C3-1)/H3)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D16" s="13">
+        <f>((D3-1)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f>((E3-1)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <f>((F3-1)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f>((G3-1)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="13">
         <f>I3/Q3</f>
         <v>8.2352941176470587E-2</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="13">
         <f>J3/Q3</f>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="13">
         <f>K3/Q3</f>
         <v>0.16862745098039217</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="13">
         <f>L3/Q3</f>
         <v>0.21176470588235294</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="13">
         <f>M3/Q3</f>
         <v>0.43137254901960786</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="13">
         <f>N3/Q3</f>
         <v>0</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="13">
         <f>O3/Q3</f>
         <v>7.8431372549019607E-3</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="13">
         <f>P3/Q3</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="5"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="19">
-        <f t="shared" ref="B17:B25" si="2">(B4/H4)</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" ref="C17:C25" si="3">(C4/H4)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" ref="D17:D25" si="4">(D4/H4)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="E17" s="19">
-        <f t="shared" ref="E17:E25" si="5">(E4/H4)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" ref="F17:F25" si="6">(F4/H4)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" ref="G17:G25" si="7">(G4/H4)</f>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="19">
+      <c r="B17" s="13">
+        <f t="shared" ref="B17:B25" si="2">((B4-1)/H4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:C25" si="3">((C4-1)/H4)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" ref="D17:D25" si="4">((D4-1)/H4)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:E25" si="5">((E4-1)/H4)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" ref="F17:F25" si="6">((F4-1)/H4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" ref="G17:G25" si="7">((G4-1)/H4)</f>
+        <v>0.15</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14">
         <f t="shared" ref="I17:I25" si="8">I4/Q4</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="14">
         <f t="shared" ref="J17:J25" si="9">J4/Q4</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="14">
         <f t="shared" ref="K17:K25" si="10">K4/Q4</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="14">
         <f t="shared" ref="L17:L25" si="11">L4/Q4</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="14">
         <f t="shared" ref="M17:M25" si="12">M4/Q4</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="14">
         <f t="shared" ref="N17:N25" si="13">N4/Q4</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="14">
         <f t="shared" ref="O17:O25" si="14">O4/Q4</f>
         <v>0.1</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="14">
         <f t="shared" ref="P17:P25" si="15">P4/Q4</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <f t="shared" si="3"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D18" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="D18" s="13">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E18" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="13">
         <f t="shared" si="5"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="6"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
         <f t="shared" si="7"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14">
         <f t="shared" si="8"/>
         <v>0.24581005586592178</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="14">
         <f t="shared" si="9"/>
         <v>9.4972067039106142E-2</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="14">
         <f t="shared" si="10"/>
         <v>0.19832402234636873</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="14">
         <f t="shared" si="11"/>
         <v>9.7765363128491614E-2</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="14">
         <f t="shared" si="12"/>
         <v>0.36033519553072624</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="14">
         <f t="shared" si="14"/>
         <v>2.7932960893854749E-3</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="12">
         <v>4</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="19">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C19" s="13">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
         <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
         <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
         <f t="shared" si="7"/>
-        <v>0.125</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="14">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="14">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="14">
         <f t="shared" si="10"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="14">
         <f t="shared" si="11"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="14">
         <f t="shared" si="12"/>
         <v>0.31428571428571428</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="14">
         <f t="shared" si="13"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="14">
         <f t="shared" si="14"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="12">
         <v>5</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="13">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="14">
         <f t="shared" si="8"/>
         <v>0.11320754716981132</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="14">
         <f t="shared" si="9"/>
         <v>0.16981132075471697</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="14">
         <f t="shared" si="10"/>
         <v>0.16981132075471697</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="14">
         <f t="shared" si="11"/>
         <v>0.11320754716981132</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="14">
         <f t="shared" si="12"/>
         <v>0.39622641509433965</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="14">
         <f t="shared" si="14"/>
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="12">
         <v>6</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <f t="shared" si="2"/>
-        <v>0.92173913043478262</v>
-      </c>
-      <c r="C21" s="19">
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="C21" s="13">
         <f t="shared" si="3"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="D21" s="19">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="D21" s="13">
         <f t="shared" si="4"/>
-        <v>8.6956521739130436E-3</v>
-      </c>
-      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
         <f t="shared" si="5"/>
-        <v>8.6956521739130436E-3</v>
-      </c>
-      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>8.6956521739130436E-3</v>
-      </c>
-      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="7"/>
-        <v>8.6956521739130436E-3</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14">
         <f t="shared" si="8"/>
         <v>0.33628318584070799</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="14">
         <f t="shared" si="9"/>
         <v>0.32743362831858408</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="14">
         <f t="shared" si="10"/>
         <v>9.7345132743362831E-2</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="14">
         <f t="shared" si="11"/>
         <v>0.13274336283185842</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="14">
         <f t="shared" si="12"/>
         <v>8.8495575221238937E-2</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="14">
         <f t="shared" si="14"/>
         <v>1.7699115044247787E-2</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>7</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="13">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
         <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="14">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="14">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="14">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="14">
         <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="14">
         <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="12">
         <v>8</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
         <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14">
         <f t="shared" si="8"/>
         <v>0.29098360655737704</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="14">
         <f t="shared" si="9"/>
         <v>9.8360655737704916E-2</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="14">
         <f t="shared" si="10"/>
         <v>9.4262295081967207E-2</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="14">
         <f t="shared" si="11"/>
         <v>0.12841530054644809</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="14">
         <f t="shared" si="12"/>
         <v>0.38661202185792348</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="14">
         <f t="shared" si="14"/>
         <v>1.366120218579235E-3</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>9</v>
       </c>
-      <c r="B24" s="19" t="e">
+      <c r="B24" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="19" t="e">
+      <c r="C24" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="19" t="e">
+      <c r="D24" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="19" t="e">
+      <c r="E24" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="19" t="e">
+      <c r="F24" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="16" t="e">
+      <c r="G24" s="11" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="19" t="e">
+      <c r="H24" s="8"/>
+      <c r="I24" s="14" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="19" t="e">
+      <c r="J24" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="19" t="e">
+      <c r="K24" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="19" t="e">
+      <c r="L24" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="19" t="e">
+      <c r="M24" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="19" t="e">
+      <c r="N24" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="19" t="e">
+      <c r="O24" s="14" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="19" t="e">
+      <c r="P24" s="14" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="12">
         <v>10</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="13">
         <f t="shared" si="2"/>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="C25" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="13">
         <f t="shared" si="3"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" si="4"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <f t="shared" si="6"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
         <f t="shared" si="7"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="14">
         <f t="shared" si="8"/>
         <v>8.6253369272237201E-2</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="14">
         <f t="shared" si="9"/>
         <v>0.18598382749326145</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="14">
         <f t="shared" si="10"/>
         <v>0.16442048517520216</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="14">
         <f t="shared" si="11"/>
         <v>0.16711590296495957</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="14">
         <f t="shared" si="12"/>
         <v>0.38814016172506738</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="14">
         <f t="shared" si="14"/>
         <v>8.0862533692722376E-3</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
